--- a/sem1/CN_СО-ИП-21-1.xlsx
+++ b/sem1/CN_СО-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD7ADC5-F671-E54B-8AB6-65919822973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D63D776-19FC-D741-9A0E-7CBDDCFEA88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -559,16 +559,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="141" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="10.83203125" style="6"/>
+    <col min="3" max="11" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -599,8 +599,12 @@
       <c r="I1" s="4">
         <v>45191</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="J1" s="4">
+        <v>45198</v>
+      </c>
+      <c r="K1" s="4">
+        <v>45198</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -636,8 +640,12 @@
       <c r="I2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -673,8 +681,12 @@
       <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -710,8 +722,12 @@
       <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -747,8 +763,12 @@
       <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -784,8 +804,12 @@
       <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -821,8 +845,12 @@
       <c r="I7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -858,8 +886,12 @@
       <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -895,8 +927,12 @@
       <c r="I9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -932,8 +968,12 @@
       <c r="I10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -969,8 +1009,12 @@
       <c r="I11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1006,8 +1050,12 @@
       <c r="I12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -1043,8 +1091,12 @@
       <c r="I13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1080,8 +1132,12 @@
       <c r="I14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -1109,16 +1165,20 @@
         <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1154,8 +1214,12 @@
       <c r="I16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -1191,8 +1255,12 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1228,8 +1296,12 @@
       <c r="I18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1265,8 +1337,12 @@
       <c r="I19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -1302,8 +1378,12 @@
       <c r="I20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -1339,8 +1419,12 @@
       <c r="I21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1376,8 +1460,12 @@
       <c r="I22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -1413,8 +1501,12 @@
       <c r="I23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -1450,8 +1542,12 @@
       <c r="I24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -1487,8 +1583,12 @@
       <c r="I25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -1505,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEA7E05-0C8D-4D46-85EA-C6A53E1C16A0}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1704,16 +1804,18 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
       <c r="D6" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1726,7 +1828,7 @@
       </c>
       <c r="O6" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">

--- a/sem1/CN_СО-ИП-21-1.xlsx
+++ b/sem1/CN_СО-ИП-21-1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D63D776-19FC-D741-9A0E-7CBDDCFEA88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E7FCDF-0FC4-1040-8311-6619C8DF2CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
     <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Калашников Игорь Юрьевич</t>
   </si>
   <si>
-    <t>Калмаков Алексей Евгеньевич</t>
-  </si>
-  <si>
     <t>Карпенко Анна Сергеевна</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Итог</t>
   </si>
   <si>
-    <t>Тест (5)</t>
-  </si>
-  <si>
     <t>Лаб. 3 (10)</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>Лаб. 2 (12)</t>
   </si>
   <si>
-    <t>Лаб. 4 (5)</t>
-  </si>
-  <si>
     <t>Ат. 1 (40)</t>
   </si>
   <si>
@@ -165,6 +156,12 @@
   </si>
   <si>
     <t>Роттэ Артем</t>
+  </si>
+  <si>
+    <t>Черепков Ярослав</t>
+  </si>
+  <si>
+    <t>Тест (10)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +244,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -557,10 +585,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="141" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,10 +599,11 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="10.83203125" style="6"/>
+    <col min="12" max="16" width="6.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,14 +637,24 @@
       <c r="K1" s="4">
         <v>45198</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="L1" s="4">
+        <v>45205</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45205</v>
+      </c>
+      <c r="N1" s="4">
+        <v>45212</v>
+      </c>
+      <c r="O1" s="4">
+        <v>45212</v>
+      </c>
+      <c r="P1" s="4">
+        <v>45215</v>
+      </c>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -620,40 +662,50 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -661,40 +713,50 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -702,40 +764,50 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -743,40 +815,50 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -784,40 +866,50 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -825,40 +917,50 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -866,40 +968,50 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -907,40 +1019,50 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -948,40 +1070,50 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -989,414 +1121,514 @@
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>26</v>
@@ -1408,205 +1640,320 @@
         <v>26</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q25" s="5"/>
     </row>
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="5"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M26">
+    <sortCondition ref="B1:B26"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:XFD26">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEA7E05-0C8D-4D46-85EA-C6A53E1C16A0}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1615,18 +1962,17 @@
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1634,46 +1980,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1683,29 +2026,32 @@
       <c r="C2" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="5">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
-        <f>SUM(C2:G2)</f>
-        <v>8</v>
-      </c>
+      <c r="G2" s="5">
+        <f>SUM(C2:F2)</f>
+        <v>30</v>
+      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M20" si="0">SUM(H2:L2)</f>
+        <v>0</v>
+      </c>
       <c r="N2" s="5">
-        <f>SUM(I2:M2)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <f>SUM(N2,H2)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N2:N20" si="1">SUM(M2,G2)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1716,26 +2062,25 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H25" si="0">SUM(C3:G3)</f>
-        <v>0</v>
-      </c>
+      <c r="G3" s="5">
+        <f>SUM(C3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:N25" si="1">SUM(I3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3:O25" si="2">SUM(N3,H3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1746,58 +2091,60 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G4" s="5">
+        <f>SUM(C4:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N4" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O4" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
       <c r="D5" s="5">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="G5" s="5">
+        <f>SUM(C5:F5)</f>
+        <v>30</v>
+      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N5" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1810,28 +2157,29 @@
       <c r="D6" s="5">
         <v>12</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="G6" s="5">
+        <f>SUM(C6:F6)</f>
+        <v>30</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1846,26 +2194,25 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
-        <f t="shared" si="0"/>
+      <c r="G7" s="5">
+        <f>SUM(C7:F7)</f>
         <v>17</v>
       </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N7" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1878,28 +2225,29 @@
       <c r="D8" s="5">
         <v>12</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="G8" s="5">
+        <f>SUM(C8:F8)</f>
+        <v>30</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1910,26 +2258,25 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G9" s="5">
+        <f>SUM(C9:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1942,28 +2289,29 @@
       <c r="D10" s="5">
         <v>12</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="G10" s="5">
+        <f>SUM(C10:F10)</f>
+        <v>30</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1976,28 +2324,29 @@
       <c r="D11" s="5">
         <v>12</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="G11" s="5">
+        <f>SUM(C11:F11)</f>
+        <v>30</v>
+      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2007,29 +2356,32 @@
       <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="G12" s="5">
+        <f>SUM(C12:F12)</f>
+        <v>30</v>
+      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2039,157 +2391,162 @@
       <c r="C13" s="5">
         <v>8</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="G13" s="5">
+        <f>SUM(C13:F13)</f>
+        <v>27</v>
+      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N13" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5">
-        <v>9</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="G14" s="5">
+        <f>SUM(C14:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="5">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G15" s="5">
+        <f>SUM(C15:F15)</f>
+        <v>30</v>
+      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5">
-        <v>8</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5">
         <v>12</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="G16" s="5">
+        <f>SUM(C16:F16)</f>
+        <v>22</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N16" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5">
+        <v>12</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G17" s="5">
+        <f>SUM(C17:F17)</f>
+        <v>20</v>
+      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N17" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2204,26 +2561,25 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5">
-        <f t="shared" si="0"/>
+      <c r="G18" s="5">
+        <f>SUM(C18:F18)</f>
         <v>20</v>
       </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N18" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2233,31 +2589,28 @@
       <c r="C19" s="5">
         <v>8</v>
       </c>
-      <c r="D19" s="5">
-        <v>12</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="G19" s="5">
+        <f>SUM(C19:F19)</f>
+        <v>8</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2267,102 +2620,92 @@
       <c r="C20" s="5">
         <v>8</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="G20" s="5">
+        <f>SUM(C20:F20)</f>
+        <v>30</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5">
         <v>8</v>
       </c>
       <c r="D22" s="5">
-        <v>9</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10</v>
+      </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="G22" s="5">
+        <f>SUM(C22:F22)</f>
+        <v>30</v>
+      </c>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="5">
+        <f>SUM(H22:L22)</f>
+        <v>0</v>
+      </c>
       <c r="N22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <f>SUM(M22,G22)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5">
         <v>8</v>
@@ -2370,96 +2713,122 @@
       <c r="D23" s="5">
         <v>12</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>10</v>
+      </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="G23" s="5">
+        <f>SUM(C23:F23)</f>
+        <v>30</v>
+      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="5">
+        <f>SUM(H23:L23)</f>
+        <v>0</v>
+      </c>
       <c r="N23" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <f>SUM(M23,G23)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5">
         <v>8</v>
       </c>
       <c r="D25" s="5">
-        <v>9</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="G25" s="5">
+        <f>SUM(C25:F25)</f>
+        <v>30</v>
+      </c>
+      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="5">
+        <f>SUM(H25:L25)</f>
+        <v>0</v>
+      </c>
       <c r="N25" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="5">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f>SUM(M25,G25)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <f>SUM(C26:F26)</f>
+        <v>30</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5">
+        <f>SUM(H26:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <f>SUM(M26,G26)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N27">
+    <sortCondition ref="B1:B27"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sem1/CN_СО-ИП-21-1.xlsx
+++ b/sem1/CN_СО-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E7FCDF-0FC4-1040-8311-6619C8DF2CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBB6B5E-12EE-4A4B-A298-3075A4859359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Лаб. 8 (10)</t>
   </si>
   <si>
-    <t>Лаб. 5 (14)</t>
-  </si>
-  <si>
     <t>Роттэ Артем</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Тест (10)</t>
+  </si>
+  <si>
+    <t>Лаб. 4 (14)</t>
   </si>
 </sst>
 </file>
@@ -585,13 +585,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,11 +599,11 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="6"/>
+    <col min="12" max="18" width="6.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,9 +652,19 @@
       <c r="P1" s="4">
         <v>45215</v>
       </c>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="4">
+        <v>45226</v>
+      </c>
+      <c r="R1" s="4">
+        <v>45226</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -703,9 +713,19 @@
       <c r="P2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -754,9 +774,19 @@
       <c r="P3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -805,9 +835,19 @@
       <c r="P4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -856,9 +896,19 @@
       <c r="P5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -907,9 +957,19 @@
       <c r="P6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -958,9 +1018,19 @@
       <c r="P7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1009,9 +1079,19 @@
       <c r="P8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1060,9 +1140,19 @@
       <c r="P9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1111,9 +1201,19 @@
       <c r="P10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1162,9 +1262,19 @@
       <c r="P11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1213,9 +1323,19 @@
       <c r="P12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1264,9 +1384,19 @@
       <c r="P13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1315,9 +1445,19 @@
       <c r="P14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1366,9 +1506,19 @@
       <c r="P15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1417,9 +1567,19 @@
       <c r="P16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1468,9 +1628,19 @@
       <c r="P17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1519,9 +1689,19 @@
       <c r="P18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1570,9 +1750,19 @@
       <c r="P19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1621,14 +1811,24 @@
       <c r="P20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>26</v>
@@ -1672,9 +1872,19 @@
       <c r="P21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1723,9 +1933,19 @@
       <c r="P22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1774,14 +1994,24 @@
       <c r="P23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>27</v>
@@ -1825,9 +2055,19 @@
       <c r="P24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1876,9 +2116,19 @@
       <c r="P25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+    </row>
+    <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1927,7 +2177,17 @@
       <c r="P26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M26">
@@ -1952,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEA7E05-0C8D-4D46-85EA-C6A53E1C16A0}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1989,13 +2249,13 @@
         <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>34</v>
@@ -2034,20 +2294,22 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5">
-        <f>SUM(C2:F2)</f>
+        <f t="shared" ref="G2:G20" si="0">SUM(C2:F2)</f>
         <v>30</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5">
-        <f t="shared" ref="M2:M20" si="0">SUM(H2:L2)</f>
+        <f t="shared" ref="M2:M20" si="1">SUM(H2:L2)</f>
         <v>0</v>
       </c>
       <c r="N2" s="5">
-        <f t="shared" ref="N2:N20" si="1">SUM(M2,G2)</f>
+        <f t="shared" ref="N2:N20" si="2">SUM(M2,G2)</f>
         <v>30</v>
       </c>
     </row>
@@ -2063,7 +2325,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
-        <f>SUM(C3:F3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="5"/>
@@ -2072,11 +2334,11 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2092,7 +2354,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
-        <f>SUM(C4:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="5"/>
@@ -2101,11 +2363,11 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2127,7 +2389,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <f>SUM(C5:F5)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H5" s="5"/>
@@ -2136,11 +2398,11 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -2162,20 +2424,22 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
-        <f>SUM(C6:F6)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -2195,7 +2459,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
-        <f>SUM(C7:F7)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H7" s="5"/>
@@ -2204,11 +2468,11 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -2230,20 +2494,22 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
-        <f>SUM(C8:F8)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -2259,7 +2525,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
-        <f>SUM(C9:F9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="5"/>
@@ -2268,11 +2534,11 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2294,20 +2560,22 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
-        <f>SUM(C10:F10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -2329,7 +2597,7 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
-        <f>SUM(C11:F11)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H11" s="5"/>
@@ -2338,11 +2606,11 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -2364,20 +2632,22 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
-        <f>SUM(C12:F12)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -2399,7 +2669,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
-        <f>SUM(C13:F13)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="H13" s="5"/>
@@ -2408,11 +2678,11 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -2428,7 +2698,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
-        <f>SUM(C14:F14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="5"/>
@@ -2437,11 +2707,11 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2463,20 +2733,22 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
-        <f>SUM(C15:F15)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -2496,20 +2768,22 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
-        <f>SUM(C16:F16)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -2529,7 +2803,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
-        <f>SUM(C17:F17)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H17" s="5"/>
@@ -2538,11 +2812,11 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -2562,7 +2836,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
-        <f>SUM(C18:F18)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H18" s="5"/>
@@ -2571,11 +2845,11 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -2593,7 +2867,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
-        <f>SUM(C19:F19)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H19" s="5"/>
@@ -2602,11 +2876,11 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -2628,20 +2902,22 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
-        <f>SUM(C20:F20)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -2650,7 +2926,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2686,7 +2962,9 @@
         <f>SUM(C22:F22)</f>
         <v>30</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -2721,7 +2999,9 @@
         <f>SUM(C23:F23)</f>
         <v>30</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -2740,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2776,7 +3056,9 @@
         <f>SUM(C25:F25)</f>
         <v>30</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>

--- a/sem1/CN_СО-ИП-21-1.xlsx
+++ b/sem1/CN_СО-ИП-21-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBB6B5E-12EE-4A4B-A298-3075A4859359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8905CD8F-C3E2-2847-94B1-F577F3993DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="6400" yWindow="6100" windowWidth="25600" windowHeight="13900" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -587,11 +587,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,7 +600,8 @@
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="18" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.83203125" style="6"/>
+    <col min="19" max="20" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -658,8 +659,12 @@
       <c r="R1" s="4">
         <v>45226</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="S1" s="4">
+        <v>45233</v>
+      </c>
+      <c r="T1" s="4">
+        <v>45233</v>
+      </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
@@ -719,8 +724,12 @@
       <c r="R2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -780,8 +789,12 @@
       <c r="R3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -841,8 +854,12 @@
       <c r="R4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -902,8 +919,12 @@
       <c r="R5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -963,8 +984,12 @@
       <c r="R6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -1024,8 +1049,12 @@
       <c r="R7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="S7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -1085,8 +1114,12 @@
       <c r="R8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -1146,8 +1179,12 @@
       <c r="R9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="S9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -1207,8 +1244,12 @@
       <c r="R10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="S10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -1268,8 +1309,12 @@
       <c r="R11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -1329,8 +1374,12 @@
       <c r="R12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -1390,8 +1439,12 @@
       <c r="R13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
@@ -1451,8 +1504,12 @@
       <c r="R14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="S14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
@@ -1512,8 +1569,12 @@
       <c r="R15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="S15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
@@ -1573,8 +1634,12 @@
       <c r="R16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
+      <c r="S16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
@@ -1634,8 +1699,12 @@
       <c r="R17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="S17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
@@ -1695,8 +1764,12 @@
       <c r="R18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="S18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
@@ -1756,8 +1829,12 @@
       <c r="R19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="S19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
@@ -1817,8 +1894,12 @@
       <c r="R20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="S20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
@@ -1878,8 +1959,12 @@
       <c r="R21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="S21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
@@ -1939,8 +2024,12 @@
       <c r="R22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="S22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
@@ -2000,8 +2089,12 @@
       <c r="R23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
@@ -2061,8 +2154,12 @@
       <c r="R24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
+      <c r="S24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
@@ -2122,8 +2219,12 @@
       <c r="R25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
@@ -2183,8 +2284,12 @@
       <c r="R26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
@@ -2212,7 +2317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEA7E05-0C8D-4D46-85EA-C6A53E1C16A0}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/sem1/CN_СО-ИП-21-1.xlsx
+++ b/sem1/CN_СО-ИП-21-1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8905CD8F-C3E2-2847-94B1-F577F3993DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5BE16-4A3C-BB47-92A2-4D57AC60E382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="6100" windowWidth="25600" windowHeight="13900" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="1600" yWindow="2300" windowWidth="25600" windowHeight="13900" activeTab="1" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
     <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -587,11 +587,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,8 @@
     <col min="3" max="11" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="18" width="6.5" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="10.83203125" style="6"/>
+    <col min="21" max="21" width="6.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -665,7 +666,9 @@
       <c r="T1" s="4">
         <v>45233</v>
       </c>
-      <c r="U1" s="5"/>
+      <c r="U1" s="4">
+        <v>45240</v>
+      </c>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
     </row>
@@ -730,7 +733,9 @@
       <c r="T2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="5"/>
+      <c r="U2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
@@ -795,7 +800,9 @@
       <c r="T3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="5"/>
+      <c r="U3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
@@ -860,7 +867,9 @@
       <c r="T4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="5"/>
+      <c r="U4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
@@ -925,7 +934,9 @@
       <c r="T5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="5"/>
+      <c r="U5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
@@ -990,7 +1001,9 @@
       <c r="T6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="5"/>
+      <c r="U6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
@@ -1055,7 +1068,9 @@
       <c r="T7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
@@ -1120,7 +1135,9 @@
       <c r="T8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="5"/>
+      <c r="U8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
     </row>
@@ -1185,7 +1202,9 @@
       <c r="T9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="5"/>
+      <c r="U9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
@@ -1250,7 +1269,9 @@
       <c r="T10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
@@ -1315,7 +1336,9 @@
       <c r="T11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="5"/>
+      <c r="U11" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
@@ -1380,7 +1403,9 @@
       <c r="T12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="5"/>
+      <c r="U12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
@@ -1445,7 +1470,9 @@
       <c r="T13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
@@ -1510,7 +1537,9 @@
       <c r="T14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U14" s="5"/>
+      <c r="U14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
@@ -1575,7 +1604,9 @@
       <c r="T15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U15" s="5"/>
+      <c r="U15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
@@ -1640,7 +1671,9 @@
       <c r="T16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
@@ -1705,7 +1738,9 @@
       <c r="T17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U17" s="5"/>
+      <c r="U17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
@@ -1770,7 +1805,9 @@
       <c r="T18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U18" s="5"/>
+      <c r="U18" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
@@ -1835,7 +1872,9 @@
       <c r="T19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
     </row>
@@ -1900,7 +1939,9 @@
       <c r="T20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U20" s="5"/>
+      <c r="U20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
@@ -1965,7 +2006,9 @@
       <c r="T21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U21" s="5"/>
+      <c r="U21" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
     </row>
@@ -2030,7 +2073,9 @@
       <c r="T22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U22" s="5"/>
+      <c r="U22" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
     </row>
@@ -2095,7 +2140,9 @@
       <c r="T23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U23" s="5"/>
+      <c r="U23" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
     </row>
@@ -2160,7 +2207,9 @@
       <c r="T24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U24" s="5"/>
+      <c r="U24" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
     </row>
@@ -2225,7 +2274,9 @@
       <c r="T25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U25" s="5"/>
+      <c r="U25" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
     </row>
@@ -2290,7 +2341,9 @@
       <c r="T26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U26" s="5"/>
+      <c r="U26" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
     </row>
@@ -2317,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEA7E05-0C8D-4D46-85EA-C6A53E1C16A0}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3198,7 +3251,9 @@
         <f>SUM(C26:F26)</f>
         <v>30</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
